--- a/questions/Client Command Table A9.xlsx
+++ b/questions/Client Command Table A9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CU-B\IOT\W3\New folder\ecen5823-assignment9-anuh7\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98F09EE-3A46-4B40-B59E-C2EC865A6772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D94B18-7601-46AB-B3D3-8E2C9EC42239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>Client Command Table for A7</t>
   </si>
@@ -191,9 +191,6 @@
     <t>sl_bt_evt_sm_confirm_passkey_id</t>
   </si>
   <si>
-    <t>DISPLAY PASSKEY</t>
-  </si>
-  <si>
     <t>displayInit();</t>
   </si>
   <si>
@@ -272,10 +269,11 @@
     <t>Save GATT HTM, button state characteristic handle.</t>
   </si>
   <si>
-    <t xml:space="preserve"> if  att_opcode == sl_bt_gatt_handle_value_indication :
+    <t xml:space="preserve">  sl_bt_gatt_send_characteristic_confirmation()
+if att_opcode == sl_bt_gatt_handle_value_indication :
 //read button value.
- sl_bt_gatt_send_characteristic_confirmation()
 if att_opcode == sl_bt_gatt_read_response :
+// read button state value w/o indications 
 </t>
   </si>
 </sst>
@@ -1848,8 +1846,8 @@
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B43" zoomScale="96" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1924,7 +1922,7 @@
     </row>
     <row r="5" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -1939,11 +1937,11 @@
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
@@ -1959,7 +1957,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>12</v>
@@ -1969,7 +1967,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
@@ -1997,7 +1995,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
@@ -2045,7 +2043,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>36</v>
@@ -2071,7 +2069,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -2084,7 +2082,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>36</v>
@@ -2101,7 +2099,7 @@
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="16"/>
@@ -2112,7 +2110,7 @@
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="16"/>
@@ -2161,12 +2159,12 @@
     <row r="24" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="32"/>
       <c r="B24" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -2177,7 +2175,7 @@
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -2194,12 +2192,12 @@
     <row r="27" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="32"/>
       <c r="B27" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -2219,12 +2217,12 @@
         <v>46</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="16"/>
     </row>
@@ -2240,15 +2238,15 @@
     <row r="31" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
       <c r="B31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>67</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" s="16"/>
     </row>
@@ -2264,12 +2262,12 @@
     <row r="33" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="32"/>
       <c r="B33" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="16"/>
       <c r="E33" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="16"/>
@@ -2333,7 +2331,7 @@
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
       <c r="E38" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -2346,7 +2344,7 @@
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
       <c r="F39" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G39" s="18" t="s">
         <v>28</v>
@@ -2369,7 +2367,7 @@
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="F41" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>30</v>
@@ -2392,7 +2390,7 @@
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
       <c r="E43" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F43" s="20" t="s">
         <v>40</v>
@@ -2412,12 +2410,8 @@
     </row>
     <row r="45" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
-      <c r="B45" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
